--- a/MyClub-master/MyClub-master/Gav Breere College Project 0.1.xlsx
+++ b/MyClub-master/MyClub-master/Gav Breere College Project 0.1.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dermcnamara\Documents\misc\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\4th &amp; Final\Sem 1\FYP\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Player 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Player 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Player 2'!$B$1:$E$35</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>Opponent</t>
   </si>
@@ -70,15 +69,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Try</t>
-  </si>
-  <si>
-    <t>John O'Brien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lineout  </t>
   </si>
 </sst>
 </file>
@@ -120,8 +110,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,20 +416,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -445,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -462,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -479,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -496,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -513,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -530,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -547,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -564,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -581,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -598,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -615,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -632,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -649,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -666,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -683,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -700,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -717,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -734,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -751,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -768,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -802,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -819,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -839,621 +857,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:E35"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>